--- a/图片以及资料/数据记录表格.xlsx
+++ b/图片以及资料/数据记录表格.xlsx
@@ -4,121 +4,274 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="620" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="轴流风机时间表" sheetId="1" r:id="rId1"/>
     <sheet name="MPU6050数据采集误差" sheetId="2" r:id="rId2"/>
     <sheet name="系统元器件清单" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="基本要求1" sheetId="4" r:id="rId4"/>
+    <sheet name="基本要求2" sheetId="5" r:id="rId5"/>
+    <sheet name="基本要求3" sheetId="6" r:id="rId6"/>
+    <sheet name="基本要求4" sheetId="7" r:id="rId7"/>
+    <sheet name="发挥部分1" sheetId="8" r:id="rId8"/>
+    <sheet name="发挥部分2" sheetId="9" r:id="rId9"/>
+    <sheet name="创新部分" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+  <si>
+    <t>完全启动时延（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断电停止时延（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050数据采集滞后情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姿态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角速度（rad/s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度（°）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度（m/s²）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半个周期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统元器件清单</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴流风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32ZET6最小系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自制电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标图纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：15s内，不短于50cm直线，线性度偏差&lt;2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度（cm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本要求1：画直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本要求2：画线段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：15s内，30~60cm线段，长度偏差&lt;2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本要求3：设定摆动方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：15s内按照设定方向摆动，画出&gt;20cm线段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定角度（°）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本要求4：静止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：在30~45°范围放下，5S内静止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度（°）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发挥部分1：画圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：30s内画出设置半径在15~35cm的圆，重复三次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径（cm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复次数（次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发挥部分2：干扰画圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：干扰5S后恢复圆周运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复时间（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到规定轨迹时间（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳素杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>轴流风机完全启动以及断电后停止时间表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次取平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度偏差（±cm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性度偏差（±cm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用电压（V）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电压（V）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB6612FNG电机驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万向节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4（普通）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4（增压）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格（cm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全启动时延（s）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断电停止时延（s）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6x6（普通）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPU6050数据采集滞后情况表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姿态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风力摆位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单摆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角速度（rad/s）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角度（°）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速度（m/s²）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近似最高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延时情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半个周期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统元器件清单</t>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
+    <t>NMD-MAT</t>
+  </si>
+  <si>
+    <t>AVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,39 +279,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轴流风机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6*6cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32ZET6最小系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298N电机驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自制电路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPU6050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NOKIA 5110 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标图纸</t>
+    <t>测试5次取平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器与圆心位置（cm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次测量取平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降速风机个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +299,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +344,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,11 +384,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,25 +411,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,102 +778,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="14.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -690,133 +954,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>20</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>25</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>30</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>35</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>40</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>45</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -825,163 +1178,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -990,12 +1370,979 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C5" s="4">
+        <v>35</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>45</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
